--- a/biology/Botanique/Dicentre/Dicentre.xlsx
+++ b/biology/Botanique/Dicentre/Dicentre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicentra
-Dicentra (du grec dis, deux et kentron, éperon) est un genre de plantes herbacées de la famille des Fumariaceae selon la classification classique de Cronquist (1981)[1], de la famille des Papaveraceae actuellement.
+Dicentra (du grec dis, deux et kentron, éperon) est un genre de plantes herbacées de la famille des Fumariaceae selon la classification classique de Cronquist (1981), de la famille des Papaveraceae actuellement.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace herbacée hermaphrodite, dressée ou volubile. Feuilles caduques découpées, parfois en vrille. Fleurs irrégulières à deux paires de pétales, les extérieurs éperonnés ou bossus ; six étamines, ovaires à deux placentas. Fruits déhiscents à deux valves[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace herbacée hermaphrodite, dressée ou volubile. Feuilles caduques découpées, parfois en vrille. Fleurs irrégulières à deux paires de pétales, les extérieurs éperonnés ou bossus ; six étamines, ovaires à deux placentas. Fruits déhiscents à deux valves.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dicentra burmanica K.R.Stern
@@ -601,10 +617,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les dicentres renferment des alcaloïdes toxiques[3] qui peuvent être mortels[réf. nécessaire].</t>
+Les dicentres renferment des alcaloïdes toxiques qui peuvent être mortels[réf. nécessaire].</t>
         </is>
       </c>
     </row>
@@ -632,9 +650,11 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces sont cultivées et vendues en jardinerie, notamment Dicentra canadensis, D. cucullaria, D. eximia et D. formosa.[4] Résistances au froid et vivaces, elles sont utilisées dans des parterres ombragés.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces sont cultivées et vendues en jardinerie, notamment Dicentra canadensis, D. cucullaria, D. eximia et D. formosa. Résistances au froid et vivaces, elles sont utilisées dans des parterres ombragés.
 </t>
         </is>
       </c>
